--- a/data/distancetableFL.xlsx
+++ b/data/distancetableFL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fxkelly/Documents/coding/truck/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fxkelly/notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16643DA8-9A34-1E40-811E-D2988BD5ED3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177B51B6-72BD-C344-A43B-3ADD8438B272}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="1580" windowWidth="27240" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4960" yWindow="1580" windowWidth="27240" windowHeight="16040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="264">
   <si>
     <t>TM Palmetto</t>
   </si>
@@ -697,30 +697,12 @@
     <t>color</t>
   </si>
   <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
     <t>#4C0099</t>
   </si>
   <si>
     <t>#00CC00</t>
   </si>
   <si>
-    <t>#FF9933</t>
-  </si>
-  <si>
     <t>distancetable</t>
   </si>
   <si>
@@ -815,6 +797,27 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>#0000FF</t>
+  </si>
+  <si>
+    <t>#008000</t>
+  </si>
+  <si>
+    <t>#FF0000</t>
+  </si>
+  <si>
+    <t>#00FFFF</t>
+  </si>
+  <si>
+    <t>#FFA500</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>terminalnumber</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923E65F7-833F-FD4E-99C3-4FF1026DDA2F}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1674,87 +1677,87 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" t="s">
         <v>232</v>
       </c>
-      <c r="B3" t="s">
-        <v>238</v>
-      </c>
       <c r="C3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -14157,7 +14160,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -15863,20 +15866,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A67BAB-A16B-0946-A919-B102AD1C268C}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C1" t="s">
         <v>220</v>
@@ -15888,19 +15890,22 @@
         <v>222</v>
       </c>
       <c r="F1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="I1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="J1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -15914,7 +15919,7 @@
         <v>26.089092999999998</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="F2">
         <v>60</v>
@@ -15928,8 +15933,11 @@
       <c r="I2">
         <v>500000</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -15943,7 +15951,7 @@
         <v>27.637357999999999</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="F3">
         <v>60</v>
@@ -15957,8 +15965,11 @@
       <c r="I3">
         <v>500000</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -15972,7 +15983,7 @@
         <v>27.858483</v>
       </c>
       <c r="E4" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="F4">
         <v>60</v>
@@ -15986,8 +15997,11 @@
       <c r="I4">
         <v>500000</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -16001,7 +16015,7 @@
         <v>27.951598000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="F5">
         <v>60</v>
@@ -16015,8 +16029,11 @@
       <c r="I5">
         <v>500000</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -16030,7 +16047,7 @@
         <v>28.404253000000001</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F6">
         <v>60</v>
@@ -16044,8 +16061,11 @@
       <c r="I6">
         <v>500000</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -16059,7 +16079,7 @@
         <v>28.421876999999999</v>
       </c>
       <c r="E7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F7">
         <v>60</v>
@@ -16073,8 +16093,11 @@
       <c r="I7">
         <v>500000</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -16088,7 +16111,7 @@
         <v>30.360426</v>
       </c>
       <c r="E8" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="F8">
         <v>60</v>
@@ -16102,8 +16125,11 @@
       <c r="I8">
         <v>500000</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -16117,7 +16143,7 @@
         <v>30.417065999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="F9">
         <v>60</v>
@@ -16130,6 +16156,9 @@
       </c>
       <c r="I9">
         <v>500000</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -16152,12 +16181,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B2">
         <v>11000</v>
@@ -16165,7 +16194,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -16173,7 +16202,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B4">
         <v>4000</v>
@@ -16181,7 +16210,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B5">
         <v>75</v>
@@ -16189,7 +16218,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B6">
         <v>540</v>
@@ -16205,7 +16234,7 @@
   <dimension ref="A1:D213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/distancetableFL.xlsx
+++ b/data/distancetableFL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fxkelly/notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177B51B6-72BD-C344-A43B-3ADD8438B272}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F11E13-85C1-D640-8736-AE052A5F0A97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="1580" windowWidth="27240" windowHeight="16040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6540" yWindow="4580" windowWidth="27240" windowHeight="16040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="273">
   <si>
     <t>TM Palmetto</t>
   </si>
@@ -818,6 +818,33 @@
   </si>
   <si>
     <t>terminalnumber</t>
+  </si>
+  <si>
+    <t>hexcolor</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>darkgreen</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>cadetblue</t>
   </si>
 </sst>
 </file>
@@ -15866,9 +15893,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A67BAB-A16B-0946-A919-B102AD1C268C}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15876,7 +15905,7 @@
     <col min="10" max="10" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>241</v>
       </c>
@@ -15887,7 +15916,7 @@
         <v>221</v>
       </c>
       <c r="E1" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="F1" t="s">
         <v>240</v>
@@ -15904,8 +15933,11 @@
       <c r="J1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -15936,8 +15968,11 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -15968,8 +16003,11 @@
       <c r="J3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -16000,8 +16038,11 @@
       <c r="J4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -16032,8 +16073,11 @@
       <c r="J5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -16064,8 +16108,11 @@
       <c r="J6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -16096,8 +16143,11 @@
       <c r="J7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -16128,8 +16178,11 @@
       <c r="J8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -16159,6 +16212,9 @@
       </c>
       <c r="J9">
         <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/data/distancetableFL.xlsx
+++ b/data/distancetableFL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fxkelly/notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F11E13-85C1-D640-8736-AE052A5F0A97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0BDA66-211A-CD41-9A10-6109891EDCD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="4580" windowWidth="27240" windowHeight="16040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9540" yWindow="8780" windowWidth="27240" windowHeight="16040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="8" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>2525 Tamiami Trail Port Charlotte, FL 33952</t>
   </si>
   <si>
-    <t>3300 NW 87th Avenue Doral, FL 33172</t>
-  </si>
-  <si>
     <t>3601 N. Federal Hwy Pompano Beach, FL 33064</t>
   </si>
   <si>
@@ -845,6 +842,9 @@
   </si>
   <si>
     <t>cadetblue</t>
+  </si>
+  <si>
+    <t>3300 NW 87th Avenue Doral, FL 33172</t>
   </si>
 </sst>
 </file>
@@ -1689,10 +1689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923E65F7-833F-FD4E-99C3-4FF1026DDA2F}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E21" sqref="E21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1704,87 +1704,129 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" t="s">
         <v>254</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>255</v>
-      </c>
-      <c r="C1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" t="s">
         <v>232</v>
       </c>
-      <c r="C2" t="s">
-        <v>233</v>
-      </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" t="s">
         <v>235</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>236</v>
-      </c>
-      <c r="D4" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" t="s">
         <v>250</v>
       </c>
-      <c r="B5" t="s">
-        <v>251</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" t="s">
         <v>238</v>
-      </c>
-      <c r="C6" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E17" s="1">
+        <v>33.32</v>
+      </c>
+      <c r="F17" s="1">
+        <v>244.06</v>
+      </c>
+      <c r="G17" s="1">
+        <v>277.33999999999997</v>
+      </c>
+      <c r="H17" s="1">
+        <v>273.82</v>
+      </c>
+      <c r="I17" s="1">
+        <v>216.8</v>
+      </c>
+      <c r="J17" s="1">
+        <v>231.78</v>
+      </c>
+      <c r="K17" s="1">
+        <v>355.26</v>
+      </c>
+      <c r="L17" s="1">
+        <v>359.01</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>-80.315368000000007</v>
+      </c>
+      <c r="F19">
+        <v>25.764150000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>-80.372941999999995</v>
+      </c>
+      <c r="F21">
+        <v>25.583760999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1796,7 +1838,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I213"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:R5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1921,28 +1965,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>33.32</v>
+        <v>170</v>
       </c>
       <c r="C5" s="1">
-        <v>244.06</v>
+        <v>61.5</v>
       </c>
       <c r="D5" s="1">
-        <v>277.33999999999997</v>
+        <v>98.3</v>
       </c>
       <c r="E5" s="1">
-        <v>273.82</v>
+        <v>94.3</v>
       </c>
       <c r="F5" s="1">
-        <v>216.8</v>
+        <v>210</v>
       </c>
       <c r="G5" s="1">
-        <v>231.78</v>
+        <v>166</v>
       </c>
       <c r="H5" s="1">
-        <v>355.26</v>
+        <v>291</v>
       </c>
       <c r="I5" s="1">
-        <v>359.01</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -7986,7 +8030,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I213"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8111,28 +8157,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>50.3</v>
+        <v>154</v>
       </c>
       <c r="C5">
-        <v>247.9</v>
+        <v>69</v>
       </c>
       <c r="D5">
-        <v>287.5</v>
+        <v>101</v>
       </c>
       <c r="E5">
-        <v>275.10000000000002</v>
+        <v>90</v>
       </c>
       <c r="F5">
-        <v>230.8</v>
+        <v>192</v>
       </c>
       <c r="G5">
-        <v>241.2</v>
+        <v>156</v>
       </c>
       <c r="H5">
-        <v>364.4</v>
+        <v>272</v>
       </c>
       <c r="I5">
-        <v>367</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -14187,7 +14233,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -15895,7 +15941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A67BAB-A16B-0946-A919-B102AD1C268C}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -15907,34 +15953,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" t="s">
         <v>241</v>
       </c>
-      <c r="C1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K1" t="s">
         <v>221</v>
-      </c>
-      <c r="E1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G1" t="s">
-        <v>228</v>
-      </c>
-      <c r="H1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J1" t="s">
-        <v>263</v>
-      </c>
-      <c r="K1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -15942,7 +15988,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C2">
         <v>-80.131586999999996</v>
@@ -15951,7 +15997,7 @@
         <v>26.089092999999998</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F2">
         <v>60</v>
@@ -15969,7 +16015,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -15986,7 +16032,7 @@
         <v>27.637357999999999</v>
       </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F3">
         <v>60</v>
@@ -16004,7 +16050,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -16021,7 +16067,7 @@
         <v>27.858483</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F4">
         <v>60</v>
@@ -16039,7 +16085,7 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -16056,7 +16102,7 @@
         <v>27.951598000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F5">
         <v>60</v>
@@ -16074,7 +16120,7 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -16091,7 +16137,7 @@
         <v>28.404253000000001</v>
       </c>
       <c r="E6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F6">
         <v>60</v>
@@ -16109,7 +16155,7 @@
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -16126,7 +16172,7 @@
         <v>28.421876999999999</v>
       </c>
       <c r="E7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F7">
         <v>60</v>
@@ -16144,7 +16190,7 @@
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -16152,7 +16198,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8">
         <v>-81.626013</v>
@@ -16161,7 +16207,7 @@
         <v>30.360426</v>
       </c>
       <c r="E8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F8">
         <v>60</v>
@@ -16179,7 +16225,7 @@
         <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -16187,7 +16233,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9">
         <v>-81.609499999999997</v>
@@ -16196,7 +16242,7 @@
         <v>30.417065999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F9">
         <v>60</v>
@@ -16214,7 +16260,7 @@
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -16237,12 +16283,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B2">
         <v>11000</v>
@@ -16250,7 +16296,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -16258,7 +16304,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B4">
         <v>4000</v>
@@ -16266,7 +16312,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B5">
         <v>75</v>
@@ -16274,7 +16320,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B6">
         <v>540</v>
@@ -16289,8 +16335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96A2560-92D6-3944-89BE-FE247940F8DA}">
   <dimension ref="A1:D213"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16303,10 +16349,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
         <v>220</v>
-      </c>
-      <c r="D1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -16317,10 +16363,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>-80.372941999999995</v>
+        <v>-80.374317700000006</v>
       </c>
       <c r="D2">
-        <v>25.583760999999999</v>
+        <v>25.598410900000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -16359,10 +16405,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>-80.315368000000007</v>
+        <v>-82.118516299999996</v>
       </c>
       <c r="D5">
-        <v>25.764150000000001</v>
+        <v>26.993905900000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -16370,7 +16416,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>272</v>
       </c>
       <c r="C6">
         <v>-80.337776000000005</v>
@@ -16384,7 +16430,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>-80.190751000000006</v>
@@ -16398,7 +16444,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>-80.188658000000004</v>
@@ -16412,7 +16458,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>-80.296390000000002</v>
@@ -16426,7 +16472,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>-80.2166</v>
@@ -16440,7 +16486,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>-80.207824000000002</v>
@@ -16454,7 +16500,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>-80.226850999999996</v>
@@ -16468,7 +16514,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>-81.748440000000002</v>
@@ -16482,7 +16528,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>-80.196100000000001</v>
@@ -16496,7 +16542,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>-81.751716000000002</v>
@@ -16510,7 +16556,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>-80.259749999999997</v>
@@ -16524,7 +16570,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>-80.276055999999997</v>
@@ -16538,7 +16584,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>-80.200254000000001</v>
@@ -16552,7 +16598,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>-80.223571000000007</v>
@@ -16566,7 +16612,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>-80.153152000000006</v>
@@ -16580,7 +16626,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>-80.119219999999999</v>
@@ -16594,7 +16640,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>-80.202896999999993</v>
@@ -16608,7 +16654,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>-80.103943999999998</v>
@@ -16622,7 +16668,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>-80.205585999999997</v>
@@ -16636,7 +16682,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>-80.18871</v>
@@ -16650,7 +16696,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>-81.871163999999993</v>
@@ -16664,7 +16710,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>-80.0702</v>
@@ -16678,7 +16724,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>-81.864513000000002</v>
@@ -16692,7 +16738,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>-81.974191000000005</v>
@@ -16706,7 +16752,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>-81.792919999999995</v>
@@ -16720,7 +16766,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <v>-80.147704000000004</v>
@@ -16734,7 +16780,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>-80.113035999999994</v>
@@ -16748,7 +16794,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>-80.089152999999996</v>
@@ -16762,7 +16808,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>-81.940612000000002</v>
@@ -16776,7 +16822,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35">
         <v>-80.074350999999993</v>
@@ -16790,7 +16836,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36">
         <v>-80.092095999999998</v>
@@ -16804,7 +16850,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37">
         <v>-82.011657999999997</v>
@@ -16818,7 +16864,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38">
         <v>-82.405591999999999</v>
@@ -16832,7 +16878,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39">
         <v>-82.383675999999994</v>
@@ -16846,7 +16892,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40">
         <v>-82.452050999999997</v>
@@ -16860,7 +16906,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41">
         <v>-80.252870000000001</v>
@@ -16874,7 +16920,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42">
         <v>-80.249504000000002</v>
@@ -16888,7 +16934,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43">
         <v>-80.432214999999999</v>
@@ -16902,7 +16948,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44">
         <v>-82.464072999999999</v>
@@ -16916,7 +16962,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45">
         <v>-80.340940000000003</v>
@@ -16930,7 +16976,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46">
         <v>-82.531502000000003</v>
@@ -16944,7 +16990,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47">
         <v>-82.463024000000004</v>
@@ -16958,7 +17004,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48">
         <v>-80.380810999999994</v>
@@ -16972,7 +17018,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49">
         <v>-82.394679999999994</v>
@@ -16986,7 +17032,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50">
         <v>-82.504672999999997</v>
@@ -17000,7 +17046,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51">
         <v>-82.575907000000001</v>
@@ -17014,7 +17060,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52">
         <v>-82.587615</v>
@@ -17028,7 +17074,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53">
         <v>-82.304418999999996</v>
@@ -17042,7 +17088,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54">
         <v>-82.562838999999997</v>
@@ -17056,7 +17102,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55">
         <v>-82.508328000000006</v>
@@ -17070,7 +17116,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56">
         <v>-82.174299000000005</v>
@@ -17084,7 +17130,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57">
         <v>-80.382570000000001</v>
@@ -17098,7 +17144,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58">
         <v>-80.513672</v>
@@ -17112,7 +17158,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59">
         <v>-82.679364000000007</v>
@@ -17126,7 +17172,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60">
         <v>-82.715770000000006</v>
@@ -17140,7 +17186,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C61">
         <v>-82.666706000000005</v>
@@ -17154,7 +17200,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62">
         <v>-82.334030999999996</v>
@@ -17168,7 +17214,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63">
         <v>-82.680462000000006</v>
@@ -17182,7 +17228,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64">
         <v>-82.770336</v>
@@ -17196,7 +17242,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65">
         <v>-82.679704000000001</v>
@@ -17210,7 +17256,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66">
         <v>-82.707970000000003</v>
@@ -17224,7 +17270,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67">
         <v>-82.760999999999996</v>
@@ -17238,7 +17284,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68">
         <v>-82.677096000000006</v>
@@ -17252,7 +17298,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C69">
         <v>-82.638678999999996</v>
@@ -17266,7 +17312,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70">
         <v>-82.326723999999999</v>
@@ -17280,7 +17326,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71">
         <v>-82.815499000000003</v>
@@ -17294,7 +17340,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72">
         <v>-82.335882999999995</v>
@@ -17308,7 +17354,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73">
         <v>-82.504486</v>
@@ -17322,7 +17368,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74">
         <v>-82.763017000000005</v>
@@ -17336,7 +17382,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75">
         <v>-82.245345999999998</v>
@@ -17350,7 +17396,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C76">
         <v>-82.728695000000002</v>
@@ -17364,7 +17410,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77">
         <v>-82.728660000000005</v>
@@ -17378,7 +17424,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C78">
         <v>-82.788218000000001</v>
@@ -17392,7 +17438,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C79">
         <v>-82.307320000000004</v>
@@ -17406,7 +17452,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C80">
         <v>-82.235861999999997</v>
@@ -17420,7 +17466,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C81">
         <v>-82.50506</v>
@@ -17434,7 +17480,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82">
         <v>-81.620334</v>
@@ -17448,7 +17494,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C83">
         <v>-82.749429000000006</v>
@@ -17462,7 +17508,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84">
         <v>-82.451466999999994</v>
@@ -17476,7 +17522,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C85">
         <v>-82.360421000000002</v>
@@ -17490,7 +17536,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C86">
         <v>-82.402209999999997</v>
@@ -17504,7 +17550,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C87">
         <v>-82.360296000000005</v>
@@ -17518,7 +17564,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C88">
         <v>-82.477919999999997</v>
@@ -17532,7 +17578,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C89">
         <v>-82.564513000000005</v>
@@ -17546,7 +17592,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C90">
         <v>-82.372439</v>
@@ -17560,7 +17606,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C91">
         <v>-80.649002999999993</v>
@@ -17574,7 +17620,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C92">
         <v>-81.730279999999993</v>
@@ -17588,7 +17634,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C93">
         <v>-81.912090000000006</v>
@@ -17602,7 +17648,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C94">
         <v>-82.110667000000007</v>
@@ -17616,7 +17662,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C95">
         <v>-82.542833999999999</v>
@@ -17630,7 +17676,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C96">
         <v>-82.459513999999999</v>
@@ -17644,7 +17690,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C97">
         <v>-82.151782999999995</v>
@@ -17658,7 +17704,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98">
         <v>-82.505072999999996</v>
@@ -17672,7 +17718,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C99">
         <v>-82.400865999999994</v>
@@ -17686,7 +17732,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C100">
         <v>-80.645798999999997</v>
@@ -17700,7 +17746,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C101">
         <v>-82.426914999999994</v>
@@ -17714,7 +17760,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C102">
         <v>-81.778682000000003</v>
@@ -17728,7 +17774,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C103">
         <v>-82.431887000000003</v>
@@ -17742,7 +17788,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C104">
         <v>-80.674064999999999</v>
@@ -17756,7 +17802,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C105">
         <v>-80.603714999999994</v>
@@ -17770,7 +17816,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C106">
         <v>-82.502440000000007</v>
@@ -17784,7 +17830,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C107">
         <v>-81.974574000000004</v>
@@ -17798,7 +17844,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C108">
         <v>-80.699860000000001</v>
@@ -17812,7 +17858,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C109">
         <v>-81.443899999999999</v>
@@ -17826,7 +17872,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C110">
         <v>-82.739333000000002</v>
@@ -17840,7 +17886,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C111">
         <v>-82.355430999999996</v>
@@ -17854,7 +17900,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C112">
         <v>-80.671537999999998</v>
@@ -17868,7 +17914,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C113">
         <v>-82.433515</v>
@@ -17882,7 +17928,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C114">
         <v>-82.737013000000005</v>
@@ -17896,7 +17942,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C115">
         <v>-81.648805999999993</v>
@@ -17910,7 +17956,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C116">
         <v>-82.349592000000001</v>
@@ -17924,7 +17970,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C117">
         <v>-81.256587999999994</v>
@@ -17938,7 +17984,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C118">
         <v>-82.188192000000001</v>
@@ -17952,7 +17998,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C119">
         <v>-81.482438000000002</v>
@@ -17966,7 +18012,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C120">
         <v>-81.591888999999995</v>
@@ -17980,7 +18026,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C121">
         <v>-82.677712</v>
@@ -17994,7 +18040,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C122">
         <v>-82.717652000000001</v>
@@ -18008,7 +18054,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C123">
         <v>-81.355879999999999</v>
@@ -18022,7 +18068,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C124">
         <v>-81.457622000000001</v>
@@ -18036,7 +18082,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C125">
         <v>-81.402747000000005</v>
@@ -18050,7 +18096,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C126">
         <v>-82.581090000000003</v>
@@ -18064,7 +18110,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C127">
         <v>-81.483493999999993</v>
@@ -18078,7 +18124,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C128">
         <v>-81.604809000000003</v>
@@ -18092,7 +18138,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C129">
         <v>-81.64452</v>
@@ -18106,7 +18152,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C130">
         <v>-81.234002000000004</v>
@@ -18120,7 +18166,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C131">
         <v>-80.742159000000001</v>
@@ -18134,7 +18180,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C132">
         <v>-81.687838999999997</v>
@@ -18148,7 +18194,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C133">
         <v>-81.376193000000001</v>
@@ -18162,7 +18208,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C134">
         <v>-81.244352000000006</v>
@@ -18176,7 +18222,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C135">
         <v>-81.506409000000005</v>
@@ -18190,7 +18236,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C136">
         <v>-81.403974000000005</v>
@@ -18204,7 +18250,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C137">
         <v>-81.459637999999998</v>
@@ -18218,7 +18264,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C138">
         <v>-81.410674</v>
@@ -18232,7 +18278,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C139">
         <v>-81.404248999999993</v>
@@ -18246,7 +18292,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C140">
         <v>-81.466583</v>
@@ -18260,7 +18306,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C141">
         <v>-81.397052000000002</v>
@@ -18274,7 +18320,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C142">
         <v>-81.310185000000004</v>
@@ -18288,7 +18334,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C143">
         <v>-81.247602999999998</v>
@@ -18302,7 +18348,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C144">
         <v>-81.288197999999994</v>
@@ -18316,7 +18362,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C145">
         <v>-81.331582999999995</v>
@@ -18330,7 +18376,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C146">
         <v>-81.418887999999995</v>
@@ -18344,7 +18390,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C147">
         <v>-81.376317999999998</v>
@@ -18358,7 +18404,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C148">
         <v>-81.242740999999995</v>
@@ -18372,7 +18418,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C149">
         <v>-81.377261000000004</v>
@@ -18386,7 +18432,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C150">
         <v>-81.289411000000001</v>
@@ -18400,7 +18446,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C151">
         <v>-81.344963000000007</v>
@@ -18414,7 +18460,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C152">
         <v>-81.460356000000004</v>
@@ -18428,7 +18474,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C153">
         <v>-81.310050000000004</v>
@@ -18442,7 +18488,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C154">
         <v>-82.513412000000002</v>
@@ -18456,7 +18502,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C155">
         <v>-82.473318000000006</v>
@@ -18470,7 +18516,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C156">
         <v>-81.741265999999996</v>
@@ -18484,7 +18530,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C157">
         <v>-81.583875000000006</v>
@@ -18498,7 +18544,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C158">
         <v>-81.396770000000004</v>
@@ -18512,7 +18558,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C159">
         <v>-81.286467000000002</v>
@@ -18526,7 +18572,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C160">
         <v>-81.334439000000003</v>
@@ -18540,7 +18586,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C161">
         <v>-81.168826999999993</v>
@@ -18554,7 +18600,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C162">
         <v>-81.199939000000001</v>
@@ -18568,7 +18614,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C163">
         <v>-81.278076999999996</v>
@@ -18582,7 +18628,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C164">
         <v>-81.310839999999999</v>
@@ -18596,7 +18642,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C165">
         <v>-81.415085000000005</v>
@@ -18610,7 +18656,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C166">
         <v>-82.151285999999999</v>
@@ -18624,7 +18670,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C167">
         <v>-81.218058999999997</v>
@@ -18638,7 +18684,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C168">
         <v>-81.365200000000002</v>
@@ -18652,7 +18698,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C169">
         <v>-81.416323000000006</v>
@@ -18666,7 +18712,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C170">
         <v>-81.280259999999998</v>
@@ -18680,7 +18726,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C171">
         <v>-81.207981000000004</v>
@@ -18694,7 +18740,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C172">
         <v>-81.322141000000002</v>
@@ -18708,7 +18754,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C173">
         <v>-81.468897999999996</v>
@@ -18722,7 +18768,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C174">
         <v>-81.225558000000007</v>
@@ -18736,7 +18782,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C175">
         <v>-81.346041</v>
@@ -18750,7 +18796,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C176">
         <v>-81.420564999999996</v>
@@ -18764,7 +18810,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C177">
         <v>-81.521411000000001</v>
@@ -18778,7 +18824,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C178">
         <v>-81.333710999999994</v>
@@ -18792,7 +18838,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C179">
         <v>-81.344838999999993</v>
@@ -18806,7 +18852,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C180">
         <v>-81.308729</v>
@@ -18820,7 +18866,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C181">
         <v>-81.297458000000006</v>
@@ -18834,7 +18880,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C182">
         <v>-81.333862999999994</v>
@@ -18848,7 +18894,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C183">
         <v>-81.886521999999999</v>
@@ -18862,7 +18908,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C184">
         <v>-82.485979999999998</v>
@@ -18876,7 +18922,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C185">
         <v>-81.922347000000002</v>
@@ -18890,7 +18936,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C186">
         <v>-81.295432000000005</v>
@@ -18904,7 +18950,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C187">
         <v>-81.248677000000001</v>
@@ -18918,7 +18964,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C188">
         <v>-81.957295999999999</v>
@@ -18932,7 +18978,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C189">
         <v>-80.940640000000002</v>
@@ -18946,7 +18992,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C190">
         <v>-82.054479999999998</v>
@@ -18960,7 +19006,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C191">
         <v>-81.026044999999996</v>
@@ -18974,7 +19020,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C192">
         <v>-81.002685999999997</v>
@@ -18988,7 +19034,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C193">
         <v>-82.190194000000005</v>
@@ -19002,7 +19048,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C194">
         <v>-82.095061999999999</v>
@@ -19016,7 +19062,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C195">
         <v>-82.139860999999996</v>
@@ -19030,7 +19076,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C196">
         <v>-82.177734000000001</v>
@@ -19044,7 +19090,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C197">
         <v>-82.136521999999999</v>
@@ -19058,7 +19104,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C198">
         <v>-81.023688000000007</v>
@@ -19072,7 +19118,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C199">
         <v>-81.072191000000004</v>
@@ -19086,7 +19132,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C200">
         <v>-82.099260000000001</v>
@@ -19100,7 +19146,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C201">
         <v>-82.358579000000006</v>
@@ -19114,7 +19160,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C202">
         <v>-82.343445000000003</v>
@@ -19128,7 +19174,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C203">
         <v>-81.887558999999996</v>
@@ -19142,7 +19188,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C204">
         <v>-81.755933999999996</v>
@@ -19156,7 +19202,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C205">
         <v>-81.702455</v>
@@ -19170,7 +19216,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C206">
         <v>-81.804417000000001</v>
@@ -19184,7 +19230,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C207">
         <v>-81.536167000000006</v>
@@ -19198,7 +19244,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C208">
         <v>-81.617637000000002</v>
@@ -19212,7 +19258,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C209">
         <v>-81.756071000000006</v>
@@ -19226,7 +19272,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C210">
         <v>-81.516266999999999</v>
@@ -19240,7 +19286,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C211">
         <v>-81.448949999999996</v>
@@ -19254,7 +19300,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C212">
         <v>-81.464479999999995</v>
@@ -19268,7 +19314,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C213">
         <v>-81.503563999999997</v>

--- a/data/distancetableFL.xlsx
+++ b/data/distancetableFL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fxkelly/notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0BDA66-211A-CD41-9A10-6109891EDCD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD8999D-9498-6940-82A5-7A7282393E92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="8780" windowWidth="27240" windowHeight="16040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="3520" windowWidth="27240" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="8" r:id="rId1"/>
@@ -778,15 +778,9 @@
     <t>terminaldata</t>
   </si>
   <si>
-    <t>M x 8</t>
-  </si>
-  <si>
     <t>generated using openrouteservice.org</t>
   </si>
   <si>
-    <t>data for terminals: name, latitude, longitude, color (for map), extratime (trip-time beyond calculated for route: load, discharge, any delays), supply cost, maximum gal/month that can be supplied from a terminal (to all the stations it supplies), minimum offtake</t>
-  </si>
-  <si>
     <t>tab</t>
   </si>
   <si>
@@ -845,6 +839,12 @@
   </si>
   <si>
     <t>3300 NW 87th Avenue Doral, FL 33172</t>
+  </si>
+  <si>
+    <t>M x 10</t>
+  </si>
+  <si>
+    <t>data for terminals: name, number, latitude, longitude, color (for map)...hexcode and name (latter required for folium), extratime (trip-time beyond calculated for route: load, discharge, any delays), supply cost, maximum gal/month that can be supplied from a terminal (to all the stations it supplies), minimum offtake</t>
   </si>
 </sst>
 </file>
@@ -1689,10 +1689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923E65F7-833F-FD4E-99C3-4FF1026DDA2F}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1704,13 +1704,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" t="s">
         <v>253</v>
-      </c>
-      <c r="B1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1724,7 +1724,7 @@
         <v>232</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1738,7 +1738,7 @@
         <v>233</v>
       </c>
       <c r="D3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1760,10 +1760,10 @@
         <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1788,46 +1788,14 @@
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E17" s="1">
-        <v>33.32</v>
-      </c>
-      <c r="F17" s="1">
-        <v>244.06</v>
-      </c>
-      <c r="G17" s="1">
-        <v>277.33999999999997</v>
-      </c>
-      <c r="H17" s="1">
-        <v>273.82</v>
-      </c>
-      <c r="I17" s="1">
-        <v>216.8</v>
-      </c>
-      <c r="J17" s="1">
-        <v>231.78</v>
-      </c>
-      <c r="K17" s="1">
-        <v>355.26</v>
-      </c>
-      <c r="L17" s="1">
-        <v>359.01</v>
-      </c>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E19">
-        <v>-80.315368000000007</v>
-      </c>
-      <c r="F19">
-        <v>25.764150000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E21">
-        <v>-80.372941999999995</v>
-      </c>
-      <c r="F21">
-        <v>25.583760999999999</v>
-      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1838,9 +1806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I213"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:R5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14223,7 +14189,7 @@
   <dimension ref="A1:B213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15941,14 +15907,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A67BAB-A16B-0946-A919-B102AD1C268C}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -15956,31 +15920,31 @@
         <v>240</v>
       </c>
       <c r="C1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" t="s">
         <v>219</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>220</v>
       </c>
-      <c r="E1" t="s">
-        <v>263</v>
-      </c>
       <c r="F1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" t="s">
         <v>239</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>227</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>241</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>242</v>
-      </c>
-      <c r="J1" t="s">
-        <v>262</v>
-      </c>
-      <c r="K1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -15991,31 +15955,31 @@
         <v>216</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>-80.131586999999996</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>26.089092999999998</v>
       </c>
-      <c r="E2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2">
         <v>60</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>7000000</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>500000</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -16026,31 +15990,31 @@
         <v>0</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>-82.557091</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>27.637357999999999</v>
       </c>
-      <c r="E3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H3">
         <v>60</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>7000000</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>500000</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -16061,31 +16025,31 @@
         <v>1</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>-82.548224000000005</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>27.858483</v>
       </c>
-      <c r="E4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H4">
         <v>60</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>7000000</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>500000</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -16096,31 +16060,31 @@
         <v>2</v>
       </c>
       <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>-82.441068000000001</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>27.951598000000001</v>
       </c>
-      <c r="E5" t="s">
-        <v>259</v>
-      </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H5">
         <v>60</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>7000000</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>500000</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -16131,31 +16095,31 @@
         <v>3</v>
       </c>
       <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>-80.605376000000007</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>28.404253000000001</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>223</v>
       </c>
-      <c r="F6">
+      <c r="G6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H6">
         <v>60</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>7000000</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>500000</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -16166,31 +16130,31 @@
         <v>4</v>
       </c>
       <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
         <v>-81.373255</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>28.421876999999999</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>222</v>
       </c>
-      <c r="F7">
+      <c r="G7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7">
         <v>60</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>7000000</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>500000</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -16201,31 +16165,31 @@
         <v>217</v>
       </c>
       <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
         <v>-81.626013</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>30.360426</v>
       </c>
-      <c r="E8" t="s">
-        <v>261</v>
-      </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" t="s">
+        <v>267</v>
+      </c>
+      <c r="H8">
         <v>60</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>7000000</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>500000</v>
-      </c>
-      <c r="J8">
-        <v>6</v>
-      </c>
-      <c r="K8" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -16236,31 +16200,31 @@
         <v>218</v>
       </c>
       <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
         <v>-81.609499999999997</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>30.417065999999998</v>
       </c>
-      <c r="E9" t="s">
-        <v>260</v>
-      </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G9" t="s">
+        <v>268</v>
+      </c>
+      <c r="H9">
         <v>60</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>7000000</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>500000</v>
-      </c>
-      <c r="J9">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -16335,7 +16299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96A2560-92D6-3944-89BE-FE247940F8DA}">
   <dimension ref="A1:D213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -16416,7 +16380,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C6">
         <v>-80.337776000000005</v>
